--- a/2018.10.15-2018.10.21.xlsx
+++ b/2018.10.15-2018.10.21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>时间段</t>
   </si>
@@ -189,9 +189,15 @@
     <t>去实验室 路上吃早餐</t>
   </si>
   <si>
+    <t>早饭</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
+    <t>看HBase相关知识，安装HBase环境并测试demo</t>
+  </si>
+  <si>
     <t>09：00-09：30</t>
   </si>
   <si>
@@ -222,12 +228,12 @@
     <t>12：00-12：30</t>
   </si>
   <si>
+    <t>午休</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
-    <t>午休</t>
-  </si>
-  <si>
     <t>13：00-14：00</t>
   </si>
   <si>
@@ -237,12 +243,18 @@
     <t>开周例会 主要汇报自己上周工作</t>
   </si>
   <si>
+    <t>走去实验室</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
     <t>14：30-15：00</t>
   </si>
   <si>
+    <t>学习Effective Java主要是学习泛型编程中需要注意的几个部分</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
@@ -276,12 +288,18 @@
     <t>和实验室聊天 主要是了解找工作面试的东西</t>
   </si>
   <si>
+    <t>玩游戏</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
     <t>19：00-19：30</t>
   </si>
   <si>
+    <t>学习Effective Java中关于反射以及Clone等的使用需要注意的，并对照老师的代码进行深入理解</t>
+  </si>
+  <si>
     <t>19：30-20：00</t>
   </si>
   <si>
@@ -298,6 +316,9 @@
   </si>
   <si>
     <t>21：30-22：00</t>
+  </si>
+  <si>
+    <t>看mukewang关于flink的学习视频</t>
   </si>
   <si>
     <t>22：00-22：30</t>
@@ -336,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -359,21 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,39 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -442,8 +418,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,15 +479,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,18 +508,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +578,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -569,7 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,121 +608,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,55 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,41 +931,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,6 +952,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -969,6 +972,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,11 +1019,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,152 +1030,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,37 +1188,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1549,7 +1603,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1586,15 +1640,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1606,7 +1660,7 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1620,21 +1674,21 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1648,13 +1702,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1664,774 +1718,788 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="23"/>
+      <c r="J17" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="24"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="24"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="24"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="33"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="24"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="33"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="24"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="24"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="24"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="33"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="24"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="33"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="24"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="33"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="24"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="33"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="24"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="24"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="33"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="24"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="24"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="24"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="33"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="24"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="33"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="24"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="33"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="24"/>
+      <c r="A35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="33"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="24"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="33"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="24"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="33"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="25"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2443,6 +2511,12 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.15-2018.10.21.xlsx
+++ b/2018.10.15-2018.10.21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>时间段</t>
   </si>
@@ -192,12 +192,18 @@
     <t>早饭</t>
   </si>
   <si>
+    <t>吃早饭</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
     <t>看HBase相关知识，安装HBase环境并测试demo</t>
   </si>
   <si>
+    <t>阅读Effective Java并搭建一个项目上传到github，使用maven搭建好了基本的框架，主要包括笔记文档，相关书籍，以及实现的代码</t>
+  </si>
+  <si>
     <t>09：00-09：30</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
     <t>走去实验室</t>
   </si>
   <si>
+    <t>报账</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -255,6 +264,9 @@
     <t>学习Effective Java主要是学习泛型编程中需要注意的几个部分</t>
   </si>
   <si>
+    <t>详细阅读第一条，涉及到静态工厂方法，记录笔记上传，并在这个过程中学习了简单工厂模式，并实现了基本的代码以及文档说明</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
@@ -294,18 +306,27 @@
     <t>18：30-19：00</t>
   </si>
   <si>
+    <t>将未完成部分补充完整</t>
+  </si>
+  <si>
     <t>19：00-19：30</t>
   </si>
   <si>
     <t>学习Effective Java中关于反射以及Clone等的使用需要注意的，并对照老师的代码进行深入理解</t>
   </si>
   <si>
+    <t>看电视</t>
+  </si>
+  <si>
     <t>19：30-20：00</t>
   </si>
   <si>
     <t>20：00-20：30</t>
   </si>
   <si>
+    <t>完成工厂方法模式的实现以及测试，并完善文档</t>
+  </si>
+  <si>
     <t>20：30-21：00</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>21：00-21：30</t>
   </si>
   <si>
+    <t>完成了抽象工厂的代码以及测试，到这为止工厂模式基本学习完成</t>
+  </si>
+  <si>
     <t>21：30-22：00</t>
   </si>
   <si>
@@ -325,6 +349,9 @@
   </si>
   <si>
     <t>难受 准备回家</t>
+  </si>
+  <si>
+    <t>回宿舍</t>
   </si>
   <si>
     <t>22：30-23：00</t>
@@ -357,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -376,6 +403,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,6 +435,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -418,16 +474,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,30 +489,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,21 +506,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,24 +528,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,19 +635,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +755,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,145 +797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,8 +958,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,6 +999,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,196 +1052,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,15 +1242,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,19 +1258,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1603,7 +1645,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1640,15 +1682,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1663,7 +1705,7 @@
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1674,13 +1716,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1691,7 +1733,7 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1702,13 +1744,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1721,785 +1763,803 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="32"/>
+      <c r="J17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E22" s="22"/>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="C26" s="16"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="C27" s="18"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="33"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:16">
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="38"/>
+    </row>
+    <row r="30" ht="37" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="C30" s="11"/>
       <c r="D30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="33"/>
+      <c r="A35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="33"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="33"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="34"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2517,6 +2577,12 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.15-2018.10.21.xlsx
+++ b/2018.10.15-2018.10.21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>时间段</t>
   </si>
@@ -177,12 +177,21 @@
     <t>起床洗漱</t>
   </si>
   <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>起床去实验室</t>
+  </si>
+  <si>
     <t>07：30-08：00</t>
   </si>
   <si>
     <t>骑车去实验室</t>
   </si>
   <si>
+    <t>去教室上课</t>
+  </si>
+  <si>
     <t>08：00-08：30</t>
   </si>
   <si>
@@ -195,6 +204,9 @@
     <t>吃早饭</t>
   </si>
   <si>
+    <t>组合数学 没啥意思 主要是讲最近的</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
@@ -210,6 +222,9 @@
     <t>找老师弄报账的事情</t>
   </si>
   <si>
+    <t>写gtl中HDFS存储管理代码</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -219,6 +234,9 @@
     <t>10：30-11：00</t>
   </si>
   <si>
+    <t>玩游戏</t>
+  </si>
+  <si>
     <t>11：00-11：30</t>
   </si>
   <si>
@@ -237,9 +255,18 @@
     <t>午休</t>
   </si>
   <si>
+    <t>看视频</t>
+  </si>
+  <si>
+    <t>去参加HBase的线下meetup，主要是深入了解了HBase的整体架构，对于之前看的架构不清楚的地方有了更清楚的认识，还学习到了HBase的一键迁移方案，另外的调度没有太懂</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
+    <t>继续写 最终初步实现通过不同的输入输出流来进行操作，从输入输出流中定位，但是只能支持读取操作，最终的写入还是只实现了append</t>
+  </si>
+  <si>
     <t>13：00-14：00</t>
   </si>
   <si>
@@ -255,6 +282,9 @@
     <t>报账</t>
   </si>
   <si>
+    <t>阅读Effective 第二条并完善代码上传，以及学习文档</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -282,6 +312,9 @@
     <t>16：30-17：00</t>
   </si>
   <si>
+    <t>看电视</t>
+  </si>
+  <si>
     <t>17：00-17：30</t>
   </si>
   <si>
@@ -300,9 +333,6 @@
     <t>和实验室聊天 主要是了解找工作面试的东西</t>
   </si>
   <si>
-    <t>玩游戏</t>
-  </si>
-  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -315,7 +345,7 @@
     <t>学习Effective Java中关于反射以及Clone等的使用需要注意的，并对照老师的代码进行深入理解</t>
   </si>
   <si>
-    <t>看电视</t>
+    <t>学习算法课程 将之前写的代码使用maven进行管理并上传github</t>
   </si>
   <si>
     <t>19：30-20：00</t>
@@ -345,6 +375,9 @@
     <t>看mukewang关于flink的学习视频</t>
   </si>
   <si>
+    <t>骑车回家</t>
+  </si>
+  <si>
     <t>22：00-22：30</t>
   </si>
   <si>
@@ -355,9 +388,6 @@
   </si>
   <si>
     <t>22：30-23：00</t>
-  </si>
-  <si>
-    <t>骑车回家</t>
   </si>
   <si>
     <t>23：00-23：30</t>
@@ -384,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -403,13 +433,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,8 +458,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,8 +488,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,9 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +559,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,53 +574,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,13 +665,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,168 +839,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -882,7 +912,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -892,35 +924,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -944,6 +947,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -955,11 +980,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,17 +1037,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,8 +1060,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,13 +1081,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,152 +1100,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,64 +1306,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,8 +1711,8 @@
   <sheetPr/>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1682,15 +1749,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1708,785 +1775,829 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="H2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="H12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="37"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="45"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="46"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="38"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="46"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="38"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="46"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="38"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="46"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="46"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="38"/>
+      <c r="I23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="46"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1"/>
+      <c r="E24" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="38"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="46"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="38"/>
+      <c r="I25" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="46"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="38"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="46"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="E27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="38"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="38"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="46"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="E29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="46"/>
     </row>
     <row r="30" ht="37" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="38"/>
+      <c r="I30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="46"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="38"/>
+      <c r="I31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="46"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="38"/>
+      <c r="I32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="46"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="38"/>
+      <c r="I33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="46"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="38"/>
+      <c r="I34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="46"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -2496,13 +2607,13 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="38"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="46"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="19"/>
@@ -2514,13 +2625,13 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="38"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="46"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="19"/>
@@ -2532,13 +2643,13 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="38"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="46"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="19"/>
@@ -2550,16 +2661,16 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="39"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="44">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2583,6 +2694,24 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H12:H22"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I29"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>
